--- a/Datasets/Covid-19 (Ventilators distribution by state).xlsx
+++ b/Datasets/Covid-19 (Ventilators distribution by state).xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinny Ezechi\Desktop\CORONA\New folder\covid 19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CHIME modelling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04997038-89CA-401E-B415-73CE115B36FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="19125" yWindow="3075" windowWidth="9465" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -161,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,17 +316,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,11 +608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,16 +623,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1145,17 +1152,17 @@
       <c r="B40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1163,8 +1170,8 @@
     <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1"/>
-    <hyperlink ref="C41" r:id="rId2"/>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
